--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地供应-导出.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地供应-导出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19005" windowHeight="10950"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>{Form=2}</t>
   </si>
@@ -33,6 +33,12 @@
     <t>{Node=13}</t>
   </si>
   <si>
+    <t>{Value=1}</t>
+  </si>
+  <si>
+    <t>{RateValue=1}</t>
+  </si>
+  <si>
     <t xml:space="preserve">    其中：{Node=14}</t>
   </si>
   <si>
@@ -63,6 +69,9 @@
     <t>{Node=91}</t>
   </si>
   <si>
+    <t>{Value=5}</t>
+  </si>
+  <si>
     <t>分区土地供应情况表（亩）</t>
   </si>
   <si>
@@ -73,6 +82,18 @@
   </si>
   <si>
     <t>{Area=1}</t>
+  </si>
+  <si>
+    <t>{Value=1 Node=13}</t>
+  </si>
+  <si>
+    <t>{RateValue=1 Node=13}</t>
+  </si>
+  <si>
+    <t>{Value=1 Node=91}</t>
+  </si>
+  <si>
+    <t>{RateValue=1 Node=91}</t>
   </si>
   <si>
     <t xml:space="preserve">    其中：{Area=9}</t>
@@ -112,7 +133,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,10 +142,77 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="黑体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,18 +225,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,16 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,89 +271,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,187 +315,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,15 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -514,17 +533,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,6 +577,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,17 +615,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -598,7 +626,7 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,137 +635,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,7 +781,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,15 +1109,16 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1120,127 +1152,171 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+    <row r="14" ht="14.25" spans="1:6">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>3</v>
@@ -1256,103 +1332,183 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="C21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
+    <row r="26" ht="14.25" spans="1:6">
+      <c r="A26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">

--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地供应-导出.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/建设用地供应-导出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="19005" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
-  <si>
-    <t>{Form=2}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+  <si>
+    <t>{Form=3} 3</t>
   </si>
   <si>
     <t>建设用地供应（亩）</t>
@@ -30,7 +30,7 @@
     <t>{Rate}同比%</t>
   </si>
   <si>
-    <t>{Node=13}</t>
+    <t>{Node=19}</t>
   </si>
   <si>
     <t>{Value=1}</t>
@@ -39,37 +39,37 @@
     <t>{RateValue=1}</t>
   </si>
   <si>
-    <t xml:space="preserve">    其中：{Node=14}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Node=15}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            --{Node=17}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            --{Node=18}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Node=16}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Node=87}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Node=88}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Node=89}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          -{Node=90}</t>
-  </si>
-  <si>
-    <t>{Node=91}</t>
-  </si>
-  <si>
-    <t>{Value=5}</t>
+    <t xml:space="preserve">    其中：{Node=20}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：{Node=21}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            --{Node=22}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            --{Node=23}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Node=24}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Node=25}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：{Node=26}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Node=27}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          -{Node=28}</t>
+  </si>
+  <si>
+    <t>{Node=29}</t>
+  </si>
+  <si>
+    <t>{Value=4}</t>
   </si>
   <si>
     <t>分区土地供应情况表（亩）</t>
@@ -84,43 +84,46 @@
     <t>{Area=1}</t>
   </si>
   <si>
-    <t>{Value=1 Node=13}</t>
+    <t>{Value=1 Node=19}</t>
+  </si>
+  <si>
+    <t>{RateValue=1 Node=19}</t>
+  </si>
+  <si>
+    <t>{Value=4 Node=29}</t>
+  </si>
+  <si>
+    <t>{RateValue=1 Node=29}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中:{Area=6}</t>
   </si>
   <si>
     <t>{RateValue=1 Node=13}</t>
   </si>
   <si>
-    <t>{Value=1 Node=91}</t>
-  </si>
-  <si>
-    <t>{RateValue=1 Node=91}</t>
+    <t xml:space="preserve">          {Area=7}</t>
+  </si>
+  <si>
+    <t>{Area=2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：{Area=8}</t>
+  </si>
+  <si>
+    <t>{Area=3}</t>
   </si>
   <si>
     <t xml:space="preserve">    其中：{Area=9}</t>
   </si>
   <si>
-    <t xml:space="preserve">          {Area=2}</t>
-  </si>
-  <si>
-    <t>{Area=3}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=10}</t>
+    <t xml:space="preserve">          {Area=10}</t>
+  </si>
+  <si>
+    <t>{Area=4}</t>
   </si>
   <si>
     <t>{Area=5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=11}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Area=12}</t>
-  </si>
-  <si>
-    <t>{Area=4}</t>
-  </si>
-  <si>
-    <t>{Area=6}</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,9 +146,18 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0099FF"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -156,8 +168,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,10 +262,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,36 +278,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -225,48 +287,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,22 +316,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,31 +326,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,162 +518,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -513,7 +542,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color rgb="FF0099FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,11 +584,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,21 +620,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,15 +653,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,157 +673,172 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -843,6 +896,7 @@
   <colors>
     <mruColors>
       <color rgb="000000FF"/>
+      <color rgb="000099FF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1110,19 +1164,19 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="24" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +1345,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" ht="14.25" spans="1:6">
+    <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -1331,182 +1385,182 @@
       <c r="E16" s="4"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
+    <row r="17" ht="22.5" spans="1:6">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
+    <row r="18" ht="22.5" spans="1:6">
+      <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" ht="22.5" spans="1:6">
+      <c r="A19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" ht="22.5" spans="1:6">
+      <c r="A20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" ht="22.5" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" ht="22.5" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E22" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" ht="22.5" spans="1:6">
+      <c r="A23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="5" t="s">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" ht="22.5" spans="1:6">
+      <c r="A24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E24" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" ht="22.5" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" ht="23.25" spans="1:6">
+      <c r="A26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:6">
-      <c r="A26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="3"/>
